--- a/stocksDB.xlsx
+++ b/stocksDB.xlsx
@@ -10,6 +10,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$A$943</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -50,6 +53,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">네트웍스</t>
     </r>
@@ -74,6 +78,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">홀딩스</t>
     </r>
@@ -98,6 +103,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">리테일</t>
     </r>
@@ -128,6 +134,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">금융지주</t>
     </r>
@@ -152,6 +159,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">우</t>
     </r>
@@ -182,6 +190,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">우</t>
     </r>
@@ -206,6 +215,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">우</t>
     </r>
@@ -225,6 +235,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">전환</t>
     </r>
@@ -265,6 +276,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">씨푸드</t>
     </r>
@@ -284,6 +296,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">우</t>
     </r>
@@ -308,6 +321,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">씨푸드</t>
     </r>
@@ -332,6 +346,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">홀딩스</t>
     </r>
@@ -362,6 +377,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">금융투자</t>
     </r>
@@ -386,6 +402,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">손해보험</t>
     </r>
@@ -410,6 +427,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">하이텍</t>
     </r>
@@ -429,6 +447,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">우</t>
     </r>
@@ -453,6 +472,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">하이텍</t>
     </r>
@@ -477,6 +497,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">금융지주</t>
     </r>
@@ -501,6 +522,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">동일</t>
     </r>
@@ -525,6 +547,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">우</t>
     </r>
@@ -549,6 +572,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">건설</t>
     </r>
@@ -579,6 +603,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">이앤씨우</t>
     </r>
@@ -603,6 +628,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">이앤씨</t>
     </r>
@@ -622,6 +648,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">우</t>
     </r>
@@ -641,6 +668,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">전환</t>
     </r>
@@ -675,6 +703,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">이앤씨</t>
     </r>
@@ -705,6 +734,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">제강</t>
     </r>
@@ -735,6 +765,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">켄달스퀘어리츠</t>
     </r>
@@ -765,6 +796,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">홀딩스</t>
     </r>
@@ -789,6 +821,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">우</t>
     </r>
@@ -813,6 +846,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">건설</t>
     </r>
@@ -849,6 +883,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">현대산업개발</t>
     </r>
@@ -873,6 +908,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">중공업</t>
     </r>
@@ -903,6 +939,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">만도</t>
     </r>
@@ -927,6 +964,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">홀딩스</t>
     </r>
@@ -957,6 +995,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">금융지주</t>
     </r>
@@ -981,6 +1020,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">생명과학</t>
     </r>
@@ -1005,6 +1045,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">중외제약우</t>
     </r>
@@ -1029,6 +1070,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">중외제약</t>
     </r>
@@ -1048,6 +1090,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">우</t>
     </r>
@@ -1082,6 +1125,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">중외제약</t>
     </r>
@@ -1106,6 +1150,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">홀딩스</t>
     </r>
@@ -1130,6 +1175,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">금융</t>
     </r>
@@ -1154,6 +1200,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">스타리츠</t>
     </r>
@@ -1184,6 +1231,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">스틸</t>
     </r>
@@ -1208,6 +1256,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">케미칼</t>
     </r>
@@ -1232,6 +1281,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">필룩스</t>
     </r>
@@ -1256,6 +1306,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">홀딩스</t>
     </r>
@@ -1280,6 +1331,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">케미칼</t>
     </r>
@@ -1304,6 +1356,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">홀딩스</t>
     </r>
@@ -1328,6 +1381,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">모터스</t>
     </r>
@@ -1358,6 +1412,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">우</t>
     </r>
@@ -1382,6 +1437,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">디스플레이</t>
     </r>
@@ -1412,6 +1468,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">생활건강우</t>
     </r>
@@ -1436,6 +1493,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">생활건강</t>
     </r>
@@ -1460,6 +1518,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">에너지솔루션</t>
     </r>
@@ -1484,6 +1543,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">유플러스</t>
     </r>
@@ -1508,6 +1568,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">이노텍</t>
     </r>
@@ -1532,6 +1593,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">전자우</t>
     </r>
@@ -1556,6 +1618,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">전자</t>
     </r>
@@ -1580,6 +1643,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">화학우</t>
     </r>
@@ -1604,6 +1668,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">화학</t>
     </r>
@@ -1628,6 +1693,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">넥스원</t>
     </r>
@@ -1658,6 +1724,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">네트웍스</t>
     </r>
@@ -1688,6 +1755,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">세미콘</t>
     </r>
@@ -1712,6 +1780,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">인터내셔널</t>
     </r>
@@ -1736,6 +1805,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">에탄올</t>
     </r>
@@ -1772,6 +1842,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">프라임리츠</t>
     </r>
@@ -1802,6 +1873,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">스틸</t>
     </r>
@@ -1826,6 +1898,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">우</t>
     </r>
@@ -1862,6 +1935,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">우</t>
     </r>
@@ -1892,6 +1966,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">에너지</t>
     </r>
@@ -1916,6 +1991,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">글로벌</t>
     </r>
@@ -1946,6 +2022,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">에너지화학</t>
     </r>
@@ -1982,6 +2059,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">홀딩스</t>
     </r>
@@ -2006,6 +2084,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">우</t>
     </r>
@@ -2036,6 +2115,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">가스</t>
     </r>
@@ -2060,6 +2140,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">네트웍스우</t>
     </r>
@@ -2084,6 +2165,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">네트웍스</t>
     </r>
@@ -2108,6 +2190,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">디앤디</t>
     </r>
@@ -2132,6 +2215,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">리츠</t>
     </r>
@@ -2162,6 +2246,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">스퀘어</t>
     </r>
@@ -2186,6 +2271,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">아이이테크놀로지</t>
     </r>
@@ -2210,6 +2296,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">이노베이션우</t>
     </r>
@@ -2234,6 +2321,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">이노베이션</t>
     </r>
@@ -2258,6 +2346,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">증권우</t>
     </r>
@@ -2282,6 +2371,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">증권</t>
     </r>
@@ -2306,6 +2396,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">케미칼우</t>
     </r>
@@ -2330,6 +2421,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">케미칼</t>
     </r>
@@ -2354,6 +2446,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">텔레콤</t>
     </r>
@@ -2378,6 +2471,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">모티브</t>
     </r>
@@ -2402,6 +2496,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">에너지</t>
     </r>
@@ -2426,6 +2521,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">중공업</t>
     </r>
@@ -2450,6 +2546,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">홀딩스</t>
     </r>
@@ -2474,6 +2571,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">삼립</t>
     </r>
@@ -2504,6 +2602,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">엔진</t>
     </r>
@@ -2528,6 +2627,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">중공업</t>
     </r>
@@ -2552,6 +2652,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">글로벌</t>
     </r>
@@ -2576,6 +2677,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">스틸</t>
     </r>
@@ -2932,6 +3034,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">넥센타이어</t>
     </r>
@@ -2951,6 +3054,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">우</t>
     </r>
@@ -3017,6 +3121,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">녹십자홀딩스</t>
     </r>
@@ -3036,6 +3141,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">우</t>
     </r>
@@ -3098,6 +3204,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">대교우</t>
     </r>
@@ -3128,6 +3235,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">대덕</t>
     </r>
@@ -3147,6 +3255,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">우</t>
     </r>
@@ -3173,6 +3282,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">대덕전자</t>
     </r>
@@ -3192,6 +3302,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">우</t>
     </r>
@@ -3218,6 +3329,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">대림</t>
     </r>
@@ -3296,6 +3408,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">대신증권</t>
     </r>
@@ -3315,6 +3428,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">우</t>
     </r>
@@ -3639,6 +3753,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">동양</t>
     </r>
@@ -3658,6 +3773,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">우</t>
     </r>
@@ -3712,6 +3828,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">동원</t>
     </r>
@@ -3796,6 +3913,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">두산</t>
     </r>
@@ -3815,6 +3933,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">우</t>
     </r>
@@ -3857,6 +3976,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">두산퓨얼셀</t>
     </r>
@@ -3876,6 +3996,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">우</t>
     </r>
@@ -3890,6 +4011,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">두산퓨얼셀</t>
     </r>
@@ -3909,6 +4031,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">우</t>
     </r>
@@ -3979,6 +4102,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">동일</t>
     </r>
@@ -4009,6 +4133,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">오토모티브</t>
     </r>
@@ -4215,6 +4340,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">무림</t>
     </r>
@@ -4275,6 +4401,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">맵스리얼티</t>
     </r>
@@ -4311,6 +4438,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">미래에셋증권</t>
     </r>
@@ -4330,6 +4458,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">우</t>
     </r>
@@ -4390,6 +4519,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">바다로</t>
     </r>
@@ -4409,6 +4539,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">호</t>
     </r>
@@ -4567,6 +4698,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">삼성</t>
     </r>
@@ -4586,6 +4718,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">우</t>
     </r>
@@ -4600,6 +4733,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">삼성</t>
     </r>
@@ -4630,6 +4764,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">삼성물산우</t>
     </r>
@@ -4828,6 +4963,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">삼익</t>
     </r>
@@ -5128,6 +5264,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">세이브존</t>
     </r>
@@ -5188,6 +5325,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">솔루스첨단소재</t>
     </r>
@@ -5207,6 +5345,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">우</t>
     </r>
@@ -5221,6 +5360,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">솔루스첨단소재</t>
     </r>
@@ -5240,6 +5380,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">우</t>
     </r>
@@ -5348,6 +5489,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">신세계 </t>
     </r>
@@ -5468,6 +5610,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">쌍용</t>
     </r>
@@ -5538,6 +5681,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">대한통운</t>
     </r>
@@ -5568,6 +5712,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">제일제당 우</t>
     </r>
@@ -5592,6 +5737,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">제일제당</t>
     </r>
@@ -5612,6 +5758,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">아모레</t>
     </r>
@@ -5631,6 +5778,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">우</t>
     </r>
@@ -5645,6 +5793,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">아모레</t>
     </r>
@@ -5664,6 +5813,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">우</t>
     </r>
@@ -5683,6 +5833,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">전환</t>
     </r>
@@ -5707,6 +5858,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">아모레</t>
     </r>
@@ -5767,6 +5919,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">아시아나</t>
     </r>
@@ -5879,6 +6032,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">세계물산</t>
     </r>
@@ -5903,6 +6057,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">디스커버리우</t>
     </r>
@@ -5927,6 +6082,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">디스커버리</t>
     </r>
@@ -5951,6 +6107,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">렌터카</t>
     </r>
@@ -5975,6 +6132,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">바이오사이언스</t>
     </r>
@@ -5999,6 +6157,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">바이오팜</t>
     </r>
@@ -6023,6 +6182,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">하이닉스</t>
     </r>
@@ -6077,6 +6237,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">랩스</t>
     </r>
@@ -6101,6 +6262,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">현대</t>
     </r>
@@ -6135,6 +6297,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">현대</t>
     </r>
@@ -6159,6 +6322,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">엔진</t>
     </r>
@@ -6183,6 +6347,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">글로벌</t>
     </r>
@@ -6227,6 +6392,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">엔에이치스팩</t>
     </r>
@@ -6246,6 +6412,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">호</t>
     </r>
@@ -6270,6 +6437,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">올원리츠</t>
     </r>
@@ -6294,6 +6462,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">투자증권우</t>
     </r>
@@ -6318,6 +6487,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">투자증권</t>
     </r>
@@ -6354,6 +6524,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">전선아시아</t>
     </r>
@@ -6378,6 +6549,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">하우시스우</t>
     </r>
@@ -6402,6 +6574,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">하우시스</t>
     </r>
@@ -6426,6 +6599,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">홀딩스</t>
     </r>
@@ -6445,6 +6619,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">우</t>
     </r>
@@ -6469,6 +6644,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">홀딩스</t>
     </r>
@@ -6493,6 +6669,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">헬로비전</t>
     </r>
@@ -6741,6 +6918,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">유유제약</t>
     </r>
@@ -6760,6 +6938,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">우</t>
     </r>
@@ -6774,6 +6953,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">유유제약</t>
     </r>
@@ -6793,6 +6973,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">우</t>
     </r>
@@ -7265,6 +7446,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">글로벌</t>
     </r>
@@ -7289,6 +7471,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">리테일</t>
     </r>
@@ -7363,6 +7546,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">진흥기업우</t>
     </r>
@@ -7387,6 +7571,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">진흥기업</t>
     </r>
@@ -7406,6 +7591,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">우</t>
     </r>
@@ -7506,6 +7692,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">그린홀딩스</t>
     </r>
@@ -7536,6 +7723,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">글라스</t>
     </r>
@@ -7560,6 +7748,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">코트렐</t>
     </r>
@@ -7590,6 +7779,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">해운</t>
     </r>
@@ -7670,6 +7860,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">코리아써키트</t>
     </r>
@@ -7689,6 +7880,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">우</t>
     </r>
@@ -8005,6 +8197,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">휴켐스</t>
     </r>
@@ -8101,6 +8294,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">홀딩스</t>
     </r>
@@ -8155,6 +8349,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">첨단소재</t>
     </r>
@@ -8205,6 +8400,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">하이트진로</t>
     </r>
@@ -8224,6 +8420,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">우</t>
     </r>
@@ -8290,6 +8487,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">베트남개발</t>
     </r>
@@ -8428,6 +8626,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">한국</t>
     </r>
@@ -8447,6 +8646,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">유전</t>
     </r>
@@ -8575,6 +8775,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">한세예스</t>
     </r>
@@ -8594,6 +8795,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">홀딩스</t>
     </r>
@@ -8608,6 +8810,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">한솔</t>
     </r>
@@ -8734,6 +8937,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">한전</t>
     </r>
@@ -8812,6 +9016,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">한화</t>
     </r>
@@ -8831,6 +9036,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">우</t>
     </r>
@@ -9047,6 +9253,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">현대차</t>
     </r>
@@ -9066,6 +9273,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">우</t>
     </r>
@@ -9090,6 +9298,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">현대차</t>
     </r>
@@ -9109,6 +9318,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">우</t>
     </r>
@@ -9289,6 +9499,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">효성</t>
     </r>
@@ -9373,6 +9584,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">흥국화재</t>
     </r>
@@ -9392,6 +9604,7 @@
         <color rgb="FF000000"/>
         <rFont val="나눔고딕"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">우</t>
     </r>
@@ -9432,6 +9645,7 @@
       <sz val="10"/>
       <name val="나눔고딕"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -9454,6 +9668,7 @@
       <color rgb="FFFFFFFF"/>
       <name val="나눔고딕"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -9467,6 +9682,7 @@
       <color rgb="FF000000"/>
       <name val="나눔고딕"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -9557,15 +9773,19 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C943"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A223" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F244" activeCellId="0" sqref="F244"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K19" activeCellId="0" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9573,11 +9793,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1015" min="4" style="0" width="9.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1015" min="4" style="0" width="9.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1016" style="0" width="10.6"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="20" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9643,7 +9863,7 @@
         <v>325935246</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -9665,7 +9885,7 @@
         <v>624615</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -9676,7 +9896,7 @@
         <v>2260223</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -9698,7 +9918,7 @@
         <v>29176998</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -9764,7 +9984,7 @@
         <v>70800000</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
@@ -9808,7 +10028,7 @@
         <v>25568270</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>43</v>
       </c>
@@ -9841,7 +10061,7 @@
         <v>20955884</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
         <v>49</v>
       </c>
@@ -9852,7 +10072,7 @@
         <v>2113885</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>51</v>
       </c>
@@ -9940,7 +10160,7 @@
         <v>39114367</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
         <v>67</v>
       </c>
@@ -10072,7 +10292,7 @@
         <v>15834554</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
         <v>91</v>
       </c>
@@ -10083,7 +10303,7 @@
         <v>325655</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
         <v>93</v>
       </c>
@@ -10237,7 +10457,7 @@
         <v>29240000</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
         <v>121</v>
       </c>
@@ -10270,7 +10490,7 @@
         <v>157300993</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
         <v>127</v>
       </c>
@@ -10325,7 +10545,7 @@
         <v>23667107</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
         <v>137</v>
       </c>
@@ -10347,7 +10567,7 @@
         <v>163647814</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
         <v>141</v>
       </c>
@@ -10501,7 +10721,7 @@
         <v>28600117</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
         <v>169</v>
       </c>
@@ -10534,7 +10754,7 @@
         <v>23849371</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
         <v>175</v>
       </c>
@@ -10633,7 +10853,7 @@
         <v>14934008</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
         <v>193</v>
       </c>
@@ -10666,7 +10886,7 @@
         <v>9230244</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
         <v>199</v>
       </c>
@@ -10743,7 +10963,7 @@
         <v>71297592</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
         <v>213</v>
       </c>
@@ -10765,7 +10985,7 @@
         <v>92465564</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
         <v>217</v>
       </c>
@@ -10787,7 +11007,7 @@
         <v>472590171</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
         <v>221</v>
       </c>
@@ -11084,7 +11304,7 @@
         <v>8930907</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2" t="s">
         <v>275</v>
       </c>
@@ -11282,7 +11502,7 @@
         <v>34869420</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="2" t="s">
         <v>311</v>
       </c>
@@ -11326,7 +11546,7 @@
         <v>58050037</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="2" t="s">
         <v>319</v>
       </c>
@@ -11348,7 +11568,7 @@
         <v>36953595</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="2" t="s">
         <v>323</v>
       </c>
@@ -11436,7 +11656,7 @@
         <v>45152280</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="2" t="s">
         <v>339</v>
       </c>
@@ -11469,7 +11689,7 @@
         <v>9829014</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="2" t="s">
         <v>345</v>
       </c>
@@ -11502,7 +11722,7 @@
         <v>36212160</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="2" t="s">
         <v>351</v>
       </c>
@@ -11535,7 +11755,7 @@
         <v>49678843</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="2" t="s">
         <v>357</v>
       </c>
@@ -11557,7 +11777,7 @@
         <v>53543977</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="2" t="s">
         <v>361</v>
       </c>
@@ -11590,7 +11810,7 @@
         <v>85953502</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="2" t="s">
         <v>367</v>
       </c>
@@ -11612,7 +11832,7 @@
         <v>20000000</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="2" t="s">
         <v>371</v>
       </c>
@@ -11645,7 +11865,7 @@
         <v>11686538</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="2" t="s">
         <v>377</v>
       </c>
@@ -11744,7 +11964,7 @@
         <v>84702850</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="2" t="s">
         <v>395</v>
       </c>
@@ -11766,7 +11986,7 @@
         <v>10821611</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="2" t="s">
         <v>399</v>
       </c>
@@ -11799,7 +12019,7 @@
         <v>49416925</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="2" t="s">
         <v>405</v>
       </c>
@@ -11854,7 +12074,7 @@
         <v>15225000</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="2" t="s">
         <v>415</v>
       </c>
@@ -11876,7 +12096,7 @@
         <v>34648025</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="2" t="s">
         <v>419</v>
       </c>
@@ -11931,7 +12151,7 @@
         <v>16089459</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="2" t="s">
         <v>429</v>
       </c>
@@ -11942,7 +12162,7 @@
         <v>26000000</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="2" t="s">
         <v>431</v>
       </c>
@@ -12052,7 +12272,7 @@
         <v>62000000</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="2" t="s">
         <v>451</v>
       </c>
@@ -12184,7 +12404,7 @@
         <v>24646734</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="2" t="s">
         <v>475</v>
       </c>
@@ -12217,7 +12437,7 @@
         <v>1690000</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="2" t="s">
         <v>481</v>
       </c>
@@ -12305,7 +12525,7 @@
         <v>30382784</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="2" t="s">
         <v>497</v>
       </c>
@@ -12393,7 +12613,7 @@
         <v>13617577</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="2" t="s">
         <v>513</v>
       </c>
@@ -12492,7 +12712,7 @@
         <v>13733015</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="2" t="s">
         <v>531</v>
       </c>
@@ -12503,7 +12723,7 @@
         <v>617731</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="2" t="s">
         <v>533</v>
       </c>
@@ -12613,7 +12833,7 @@
         <v>4653805</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="2" t="s">
         <v>553</v>
       </c>
@@ -12679,7 +12899,7 @@
         <v>27931470</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="2" t="s">
         <v>565</v>
       </c>
@@ -12690,7 +12910,7 @@
         <v>3996462</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="2" t="s">
         <v>567</v>
       </c>
@@ -12734,7 +12954,7 @@
         <v>638308033</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="2" t="s">
         <v>575</v>
       </c>
@@ -12745,7 +12965,7 @@
         <v>13364200</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="2" t="s">
         <v>577</v>
       </c>
@@ -12976,7 +13196,7 @@
         <v>9434574</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="2" t="s">
         <v>619</v>
       </c>
@@ -12998,7 +13218,7 @@
         <v>104909237</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="2" t="s">
         <v>623</v>
       </c>
@@ -13306,7 +13526,7 @@
         <v>177016189</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="2" t="s">
         <v>679</v>
       </c>
@@ -13317,7 +13537,7 @@
         <v>14075750</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="2" t="s">
         <v>681</v>
       </c>
@@ -13504,7 +13724,7 @@
         <v>71063049</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="2" t="s">
         <v>715</v>
       </c>
@@ -13669,7 +13889,7 @@
         <v>197673375</v>
       </c>
     </row>
-    <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="2" t="s">
         <v>745</v>
       </c>
@@ -13702,7 +13922,7 @@
         <v>8126314</v>
       </c>
     </row>
-    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="2" t="s">
         <v>751</v>
       </c>
@@ -13768,7 +13988,7 @@
         <v>196000000</v>
       </c>
     </row>
-    <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="2" t="s">
         <v>763</v>
       </c>
@@ -13790,7 +14010,7 @@
         <v>74693696</v>
       </c>
     </row>
-    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="2" t="s">
         <v>767</v>
       </c>
@@ -13823,7 +14043,7 @@
         <v>67162079</v>
       </c>
     </row>
-    <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="2" t="s">
         <v>773</v>
       </c>
@@ -13878,7 +14098,7 @@
         <v>115858891</v>
       </c>
     </row>
-    <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="2" t="s">
         <v>783</v>
       </c>
@@ -13911,7 +14131,7 @@
         <v>11000000</v>
       </c>
     </row>
-    <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="395" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="2" t="s">
         <v>789</v>
       </c>
@@ -13966,7 +14186,7 @@
         <v>15788671</v>
       </c>
     </row>
-    <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="2" t="s">
         <v>799</v>
       </c>
@@ -14263,7 +14483,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="427" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="2" t="s">
         <v>853</v>
       </c>
@@ -14340,7 +14560,7 @@
         <v>23779604</v>
       </c>
     </row>
-    <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="2" t="s">
         <v>867</v>
       </c>
@@ -14373,7 +14593,7 @@
         <v>20020000</v>
       </c>
     </row>
-    <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="2" t="s">
         <v>873</v>
       </c>
@@ -14428,7 +14648,7 @@
         <v>5293148</v>
       </c>
     </row>
-    <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="2" t="s">
         <v>883</v>
       </c>
@@ -14626,7 +14846,7 @@
         <v>140805210</v>
       </c>
     </row>
-    <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="2" t="s">
         <v>919</v>
       </c>
@@ -14637,7 +14857,7 @@
         <v>8455219</v>
       </c>
     </row>
-    <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="461" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="2" t="s">
         <v>921</v>
       </c>
@@ -14857,7 +15077,7 @@
         <v>9000000</v>
       </c>
     </row>
-    <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="481" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="2" t="s">
         <v>961</v>
       </c>
@@ -14912,7 +15132,7 @@
         <v>34958700</v>
       </c>
     </row>
-    <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="486" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="2" t="s">
         <v>971</v>
       </c>
@@ -15088,7 +15308,7 @@
         <v>47712645</v>
       </c>
     </row>
-    <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="502" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="2" t="s">
         <v>1003</v>
       </c>
@@ -15121,7 +15341,7 @@
         <v>77124820</v>
       </c>
     </row>
-    <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="505" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="2" t="s">
         <v>1009</v>
       </c>
@@ -15132,7 +15352,7 @@
         <v>6443770</v>
       </c>
     </row>
-    <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="506" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="2" t="s">
         <v>1011</v>
       </c>
@@ -15154,7 +15374,7 @@
         <v>82458180</v>
       </c>
     </row>
-    <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="508" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="2" t="s">
         <v>1015</v>
       </c>
@@ -15385,7 +15605,7 @@
         <v>202424960</v>
       </c>
     </row>
-    <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="529" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="2" t="s">
         <v>1057</v>
       </c>
@@ -15638,7 +15858,7 @@
         <v>42200000</v>
       </c>
     </row>
-    <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="552" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="2" t="s">
         <v>1103</v>
       </c>
@@ -15693,7 +15913,7 @@
         <v>30624879</v>
       </c>
     </row>
-    <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="557" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="2" t="s">
         <v>1113</v>
       </c>
@@ -15715,7 +15935,7 @@
         <v>8967670</v>
       </c>
     </row>
-    <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="559" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="2" t="s">
         <v>1117</v>
       </c>
@@ -16144,7 +16364,7 @@
         <v>26041812</v>
       </c>
     </row>
-    <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="598" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="2" t="s">
         <v>1195</v>
       </c>
@@ -16177,7 +16397,7 @@
         <v>13195454</v>
       </c>
     </row>
-    <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="601" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="2" t="s">
         <v>1201</v>
       </c>
@@ -16188,7 +16408,7 @@
         <v>2266930</v>
       </c>
     </row>
-    <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="602" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="2" t="s">
         <v>1203</v>
       </c>
@@ -16221,7 +16441,7 @@
         <v>96866418</v>
       </c>
     </row>
-    <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="605" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="2" t="s">
         <v>1209</v>
       </c>
@@ -16243,7 +16463,7 @@
         <v>73231476</v>
       </c>
     </row>
-    <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="607" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="2" t="s">
         <v>1213</v>
       </c>
@@ -16584,7 +16804,7 @@
         <v>77456610</v>
       </c>
     </row>
-    <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="638" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="2" t="s">
         <v>1275</v>
       </c>
@@ -17134,7 +17354,7 @@
         <v>77751599</v>
       </c>
     </row>
-    <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="688" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="2" t="s">
         <v>1375</v>
       </c>
@@ -17145,7 +17365,7 @@
         <v>857218</v>
       </c>
     </row>
-    <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="689" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="2" t="s">
         <v>1377</v>
       </c>
@@ -17453,7 +17673,7 @@
         <v>88534474</v>
       </c>
     </row>
-    <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="717" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="2" t="s">
         <v>1433</v>
       </c>
@@ -17464,7 +17684,7 @@
         <v>2964690</v>
       </c>
     </row>
-    <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="718" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="2" t="s">
         <v>1435</v>
       </c>
@@ -17552,7 +17772,7 @@
         <v>30907210</v>
       </c>
     </row>
-    <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="726" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="2" t="s">
         <v>1451</v>
       </c>
@@ -17563,7 +17783,7 @@
         <v>1076390</v>
       </c>
     </row>
-    <row r="727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="727" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="2" t="s">
         <v>1453</v>
       </c>
@@ -17596,7 +17816,7 @@
         <v>12626426</v>
       </c>
     </row>
-    <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="730" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="2" t="s">
         <v>1459</v>
       </c>
@@ -17695,7 +17915,7 @@
         <v>231211638</v>
       </c>
     </row>
-    <row r="739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="739" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="2" t="s">
         <v>1477</v>
       </c>
@@ -17717,7 +17937,7 @@
         <v>12523850</v>
       </c>
     </row>
-    <row r="741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="741" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="2" t="s">
         <v>1481</v>
       </c>
@@ -17827,7 +18047,7 @@
         <v>70805940</v>
       </c>
     </row>
-    <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="751" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="2" t="s">
         <v>1501</v>
       </c>
@@ -17860,7 +18080,7 @@
         <v>38899098</v>
       </c>
     </row>
-    <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="754" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="2" t="s">
         <v>1507</v>
       </c>
@@ -17948,7 +18168,7 @@
         <v>152353747</v>
       </c>
     </row>
-    <row r="762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="762" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="2" t="s">
         <v>1523</v>
       </c>
@@ -18278,7 +18498,7 @@
         <v>9611224</v>
       </c>
     </row>
-    <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="792" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="2" t="s">
         <v>1583</v>
       </c>
@@ -18300,7 +18520,7 @@
         <v>70133611</v>
       </c>
     </row>
-    <row r="794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="794" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="2" t="s">
         <v>1587</v>
       </c>
@@ -18608,7 +18828,7 @@
         <v>80020000</v>
       </c>
     </row>
-    <row r="822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="822" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="2" t="s">
         <v>1643</v>
       </c>
@@ -18916,7 +19136,7 @@
         <v>32446151</v>
       </c>
     </row>
-    <row r="850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="850" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A850" s="2" t="s">
         <v>1699</v>
       </c>
@@ -19059,7 +19279,7 @@
         <v>29529812</v>
       </c>
     </row>
-    <row r="863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="863" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="2" t="s">
         <v>1725</v>
       </c>
@@ -19114,7 +19334,7 @@
         <v>27674406</v>
       </c>
     </row>
-    <row r="868" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="868" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="2" t="s">
         <v>1735</v>
       </c>
@@ -19125,7 +19345,7 @@
         <v>479294</v>
       </c>
     </row>
-    <row r="869" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="869" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A869" s="2" t="s">
         <v>1737</v>
       </c>
@@ -19169,7 +19389,7 @@
         <v>116738915</v>
       </c>
     </row>
-    <row r="873" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="873" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A873" s="2" t="s">
         <v>1745</v>
       </c>
@@ -19213,7 +19433,7 @@
         <v>50630000</v>
       </c>
     </row>
-    <row r="877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="877" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="2" t="s">
         <v>1753</v>
       </c>
@@ -19268,7 +19488,7 @@
         <v>21863268</v>
       </c>
     </row>
-    <row r="882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="882" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A882" s="2" t="s">
         <v>1763</v>
       </c>
@@ -19389,7 +19609,7 @@
         <v>23402441</v>
       </c>
     </row>
-    <row r="893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="893" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="2" t="s">
         <v>1785</v>
       </c>
@@ -19477,7 +19697,7 @@
         <v>36047135</v>
       </c>
     </row>
-    <row r="901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="901" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="2" t="s">
         <v>1801</v>
       </c>
@@ -19488,7 +19708,7 @@
         <v>24356685</v>
       </c>
     </row>
-    <row r="902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="902" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="2" t="s">
         <v>1803</v>
       </c>
@@ -19499,7 +19719,7 @@
         <v>36485451</v>
       </c>
     </row>
-    <row r="903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="903" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="2" t="s">
         <v>1805</v>
       </c>
@@ -19642,7 +19862,7 @@
         <v>9749984</v>
       </c>
     </row>
-    <row r="916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="916" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A916" s="2" t="s">
         <v>1831</v>
       </c>
@@ -19906,7 +20126,7 @@
         <v>39188075</v>
       </c>
     </row>
-    <row r="940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="940" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A940" s="2" t="s">
         <v>1879</v>
       </c>
@@ -19917,7 +20137,7 @@
         <v>768000</v>
       </c>
     </row>
-    <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="941" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="2" t="s">
         <v>1881</v>
       </c>
@@ -19951,6 +20171,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A943">
+    <filterColumn colId="0">
+      <customFilters and="true">
+        <customFilter operator="equal" val="*0"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -19958,5 +20185,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>